--- a/Dillards ROI.xlsx
+++ b/Dillards ROI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Omar Shatrat\Documents\ESWD HW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A57FC463-85A5-40FE-9FEE-8EA75AA94C2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44E7247A-67E0-415E-A24B-B6534C20D56A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="13776" xr2:uid="{240897A1-42E0-4393-BF5B-4B7B74562227}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{240897A1-42E0-4393-BF5B-4B7B74562227}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -471,8 +471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0466FFCD-1168-402E-A03A-EC8878D8A1A2}">
   <dimension ref="A2:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -627,7 +627,7 @@
         <v>4</v>
       </c>
       <c r="B28" s="2">
-        <v>0.2646</v>
+        <v>0.157</v>
       </c>
       <c r="C28" t="s">
         <v>20</v>
@@ -639,7 +639,7 @@
       </c>
       <c r="B30">
         <f>B16*B28</f>
-        <v>1.4145780600000002</v>
+        <v>0.83933770000000008</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -648,7 +648,7 @@
       </c>
       <c r="B32" s="4">
         <f>B30*B25</f>
-        <v>4832801.2530000014</v>
+        <v>2867535.1350000007</v>
       </c>
     </row>
   </sheetData>

--- a/Dillards ROI.xlsx
+++ b/Dillards ROI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Omar Shatrat\Documents\ESWD HW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44E7247A-67E0-415E-A24B-B6534C20D56A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61DD2C2E-A62F-41CC-9FDF-319BAD2691F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{240897A1-42E0-4393-BF5B-4B7B74562227}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>US Clothing Market Size</t>
   </si>
@@ -77,15 +77,6 @@
     <t>Fixed opening costs</t>
   </si>
   <si>
-    <t>Typical Lease Term</t>
-  </si>
-  <si>
-    <t>months</t>
-  </si>
-  <si>
-    <t>Monthly Lease</t>
-  </si>
-  <si>
     <t>Rent / sq ft.</t>
   </si>
   <si>
@@ -99,6 +90,9 @@
   </si>
   <si>
     <t>from model</t>
+  </si>
+  <si>
+    <t>Yearly Lease</t>
   </si>
 </sst>
 </file>
@@ -469,10 +463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0466FFCD-1168-402E-A03A-EC8878D8A1A2}">
-  <dimension ref="A2:C32"/>
+  <dimension ref="A2:C31"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -581,73 +575,62 @@
       <c r="A19" t="s">
         <v>13</v>
       </c>
-      <c r="B19">
-        <v>24</v>
-      </c>
-      <c r="C19" t="s">
-        <v>14</v>
+      <c r="B19" s="3">
+        <v>61.4</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="1">
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="3">
+        <f>B19*B20</f>
+        <v>15350000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" s="4">
+        <f>B14-B17-B22</f>
+        <v>3416425.9927797839</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="2">
+        <v>0.157</v>
+      </c>
+      <c r="C27" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29">
+        <f>B16*B27</f>
+        <v>0.83933770000000008</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="3">
-        <v>61.4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>17</v>
-      </c>
-      <c r="B21" s="1">
-        <v>250000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B23" s="3">
-        <f>B20*B21</f>
-        <v>15350000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>18</v>
-      </c>
-      <c r="B25" s="4">
-        <f>B14-B17-B23</f>
-        <v>3416425.9927797839</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>4</v>
-      </c>
-      <c r="B28" s="2">
-        <v>0.157</v>
-      </c>
-      <c r="C28" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>10</v>
-      </c>
-      <c r="B30">
-        <f>B16*B28</f>
-        <v>0.83933770000000008</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>19</v>
-      </c>
-      <c r="B32" s="4">
-        <f>B30*B25</f>
+      <c r="B31" s="4">
+        <f>B29*B24</f>
         <v>2867535.1350000007</v>
       </c>
     </row>
